--- a/News dataset/Cleaned dataset news.xlsx
+++ b/News dataset/Cleaned dataset news.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio-my.sharepoint.com/personal/mariakov_uio_no/Documents/VÅR2024/Textembedding/news_by_theme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BBE57B1-8972-4C4B-A164-4353EDB5AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1BBE57B1-8972-4C4B-A164-4353EDB5AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8989F05-E2E8-4D1A-B559-37079076A7A1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8A86CA9-A9A0-49E5-9EF7-A3A89DE8EA84}"/>
   </bookViews>
@@ -5001,12 +5001,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5021,9 +5027,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5358,10 +5365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C64039-BA4A-4263-BD66-E3044DCE661D}">
-  <dimension ref="A1:C829"/>
+  <dimension ref="A1:D829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="B497" sqref="B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6425,7 +6432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1471</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1203</v>
       </c>
@@ -6447,7 +6454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -6458,7 +6465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1472</v>
       </c>
@@ -6469,7 +6476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -6480,7 +6487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -6491,7 +6498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>1473</v>
       </c>
@@ -6502,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1555</v>
       </c>
@@ -6513,7 +6520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -6524,7 +6531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -6535,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -6546,7 +6553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>157</v>
       </c>
@@ -6557,7 +6564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>159</v>
       </c>
@@ -6568,7 +6575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1204</v>
       </c>
@@ -6579,7 +6586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>162</v>
       </c>
@@ -6589,8 +6596,9 @@
       <c r="C111" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>164</v>
       </c>
